--- a/All_time_together.xlsx
+++ b/All_time_together.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtran/ExperimentInCognitiveScience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060418BD-DDCC-574B-80B6-DD3719A1D797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5429EB0-9766-D443-8602-1E7BA0A8DC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1640" yWindow="1620" windowWidth="23820" windowHeight="17100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="266">
   <si>
     <t>User Name</t>
   </si>
@@ -58,9 +58,6 @@
     <t>19.6 J</t>
   </si>
   <si>
-    <t>How confident are you in your answers</t>
-  </si>
-  <si>
     <t>Not at all confident</t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>Hungary</t>
   </si>
   <si>
-    <t>How confident are you?</t>
-  </si>
-  <si>
     <t>Time 1</t>
   </si>
   <si>
@@ -809,6 +803,21 @@
   </si>
   <si>
     <t>Score 1</t>
+  </si>
+  <si>
+    <t>How confident are you in your answers 4</t>
+  </si>
+  <si>
+    <t>How confident are you in your answers 5</t>
+  </si>
+  <si>
+    <t>How confident are you in your answers 3</t>
+  </si>
+  <si>
+    <t>How confident are you in your answers 2</t>
+  </si>
+  <si>
+    <t>How confident are you in your answers 1</t>
   </si>
 </sst>
 </file>
@@ -1226,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1258,13 +1267,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1282,78 +1291,78 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>12</v>
+        <v>265</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>12</v>
+        <v>264</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2">
         <v>14.285714199999999</v>
@@ -1362,10 +1371,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>6</v>
@@ -1374,28 +1383,28 @@
         <v>28</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
       <c r="Q2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R2">
         <v>33.3333333</v>
@@ -1404,46 +1413,46 @@
         <v>1</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U2" s="3"/>
       <c r="V2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD2" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AE2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C3">
         <v>14.285714199999999</v>
@@ -1452,10 +1461,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>6</v>
@@ -1464,31 +1473,31 @@
         <v>25</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R3">
         <v>33.3333333</v>
@@ -1497,45 +1506,45 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="W3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AA3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AD3" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AE3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4">
         <v>14.285714199999999</v>
@@ -1544,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
         <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -1556,28 +1565,28 @@
         <v>26</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R4">
         <v>33.3333333</v>
@@ -1586,48 +1595,48 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="W4" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="X4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z4" s="4" t="s">
+      <c r="AB4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="AA4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="AE4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C5">
         <v>14.285714199999999</v>
@@ -1636,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s">
         <v>30</v>
-      </c>
-      <c r="F5" t="s">
-        <v>31</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -1648,31 +1657,31 @@
         <v>23</v>
       </c>
       <c r="I5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="R5">
         <v>66.666666599999999</v>
@@ -1681,48 +1690,48 @@
         <v>2</v>
       </c>
       <c r="T5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD5" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C6">
         <v>28.5714285</v>
@@ -1731,10 +1740,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
@@ -1743,31 +1752,31 @@
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>9</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R6">
         <v>100</v>
@@ -1776,48 +1785,48 @@
         <v>3</v>
       </c>
       <c r="T6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V6" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="W6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="AE6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C7">
         <v>14.285714199999999</v>
@@ -1826,10 +1835,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>34</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -1838,31 +1847,31 @@
         <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
         <v>9</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="R7">
         <v>100</v>
@@ -1871,48 +1880,48 @@
         <v>3</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE7" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1921,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>36</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
@@ -1933,31 +1942,31 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R8">
         <v>66.666666599999999</v>
@@ -1966,48 +1975,48 @@
         <v>2</v>
       </c>
       <c r="T8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AA8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AE8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9">
         <v>14.285714199999999</v>
@@ -2016,10 +2025,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -2028,31 +2037,31 @@
         <v>27</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
         <v>9</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="R9">
         <v>100</v>
@@ -2061,49 +2070,49 @@
         <v>3</v>
       </c>
       <c r="T9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W9" t="s">
+        <v>15</v>
+      </c>
+      <c r="X9" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="X9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="AF9" s="3"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C10">
         <v>14.285714199999999</v>
@@ -2112,10 +2121,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
         <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -2124,31 +2133,31 @@
         <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
         <v>9</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R10">
         <v>66.666666599999999</v>
@@ -2157,48 +2166,48 @@
         <v>2</v>
       </c>
       <c r="T10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AA10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>99</v>
-      </c>
       <c r="AE10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C11">
         <v>28.5714285</v>
@@ -2207,10 +2216,10 @@
         <v>2</v>
       </c>
       <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
         <v>40</v>
-      </c>
-      <c r="F11" t="s">
-        <v>41</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>6</v>
@@ -2219,31 +2228,31 @@
         <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
         <v>9</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="R11">
         <v>100</v>
@@ -2252,48 +2261,48 @@
         <v>3</v>
       </c>
       <c r="T11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W11" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD11" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE11" t="s">
         <v>16</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C12">
         <v>14.285714199999999</v>
@@ -2302,10 +2311,10 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
         <v>6</v>
@@ -2314,31 +2323,31 @@
         <v>26</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
         <v>9</v>
       </c>
       <c r="K12" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" t="s">
+        <v>23</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M12" t="s">
-        <v>24</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="P12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="s">
         <v>123</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>125</v>
       </c>
       <c r="R12" s="4">
         <v>100</v>
@@ -2347,48 +2356,48 @@
         <v>3</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="W12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z12" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AA12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC12" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD12" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C13">
         <v>28.5714285</v>
@@ -2397,10 +2406,10 @@
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>6</v>
@@ -2409,31 +2418,31 @@
         <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
         <v>9</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="R13" s="4">
         <v>66.666666599999999</v>
@@ -2442,48 +2451,48 @@
         <v>2</v>
       </c>
       <c r="T13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="W13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="Z13" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC13" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD13" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AE13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C14">
         <v>28.5714285</v>
@@ -2492,10 +2501,10 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>6</v>
@@ -2504,31 +2513,31 @@
         <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
         <v>9</v>
       </c>
       <c r="K14" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="L14" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
         <v>135</v>
-      </c>
-      <c r="L14" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" t="s">
-        <v>25</v>
-      </c>
-      <c r="N14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O14" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="P14" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>137</v>
       </c>
       <c r="R14" s="4">
         <v>100</v>
@@ -2537,48 +2546,48 @@
         <v>3</v>
       </c>
       <c r="T14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="W14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z14" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AA14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD14" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AE14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C15">
         <v>28.5714285</v>
@@ -2587,10 +2596,10 @@
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G15" t="s">
         <v>6</v>
@@ -2599,31 +2608,31 @@
         <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
         <v>9</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>18</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q15" t="s">
         <v>142</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
-      <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>144</v>
       </c>
       <c r="R15" s="4">
         <v>66.666666599999999</v>
@@ -2632,48 +2641,48 @@
         <v>2</v>
       </c>
       <c r="T15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U15" t="s">
+        <v>143</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="W15" t="s">
+        <v>15</v>
+      </c>
+      <c r="X15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD15" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="V15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="W15" t="s">
-        <v>16</v>
-      </c>
-      <c r="X15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z15" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD15" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="AE15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C16">
         <v>28.5714285</v>
@@ -2682,10 +2691,10 @@
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -2694,31 +2703,31 @@
         <v>29</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
         <v>9</v>
       </c>
       <c r="K16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q16" t="s">
         <v>150</v>
-      </c>
-      <c r="L16" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N16" t="s">
-        <v>19</v>
-      </c>
-      <c r="O16" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>152</v>
       </c>
       <c r="R16" s="4">
         <v>100</v>
@@ -2727,48 +2736,48 @@
         <v>3</v>
       </c>
       <c r="T16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z16" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AA16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AE16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17">
         <v>14.285714199999999</v>
@@ -2777,10 +2786,10 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -2789,31 +2798,31 @@
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
         <v>9</v>
       </c>
       <c r="K17" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L17" t="s">
+        <v>15</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" t="s">
         <v>157</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" t="s">
-        <v>24</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>159</v>
       </c>
       <c r="R17" s="4">
         <v>100</v>
@@ -2822,48 +2831,48 @@
         <v>3</v>
       </c>
       <c r="T17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z17" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AA17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="AE17" t="s">
         <v>16</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C18">
         <v>28.5714285</v>
@@ -2872,10 +2881,10 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -2884,31 +2893,31 @@
         <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
         <v>9</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O18" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="R18" s="4">
         <v>66.666666599999999</v>
@@ -2917,48 +2926,48 @@
         <v>2</v>
       </c>
       <c r="T18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z18" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AA18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD18" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AE18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C19">
         <v>28.5714285</v>
@@ -2967,10 +2976,10 @@
         <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -2979,31 +2988,31 @@
         <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
         <v>9</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M19" t="s">
+        <v>24</v>
+      </c>
+      <c r="N19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P19" t="s">
         <v>16</v>
       </c>
-      <c r="M19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N19" t="s">
-        <v>19</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="P19" t="s">
-        <v>17</v>
-      </c>
       <c r="Q19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="R19" s="4">
         <v>100</v>
@@ -3012,48 +3021,48 @@
         <v>3</v>
       </c>
       <c r="T19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="W19" t="s">
+        <v>15</v>
+      </c>
+      <c r="X19" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="AE19" t="s">
         <v>16</v>
-      </c>
-      <c r="X19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD19" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C20">
         <v>28.5714285</v>
@@ -3062,10 +3071,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
         <v>6</v>
@@ -3074,31 +3083,31 @@
         <v>24</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
         <v>9</v>
       </c>
       <c r="K20" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" t="s">
+        <v>18</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="P20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q20" t="s">
         <v>175</v>
-      </c>
-      <c r="L20" t="s">
-        <v>14</v>
-      </c>
-      <c r="M20" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" t="s">
-        <v>19</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="P20" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>177</v>
       </c>
       <c r="R20" s="4">
         <v>100</v>
@@ -3107,48 +3116,48 @@
         <v>3</v>
       </c>
       <c r="T20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W20" t="s">
+        <v>15</v>
+      </c>
+      <c r="X20" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z20" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="X20" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AA20" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="AB20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD20" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AE20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C21">
         <v>28.5714285</v>
@@ -3157,10 +3166,10 @@
         <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G21" t="s">
         <v>6</v>
@@ -3169,31 +3178,31 @@
         <v>23</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
         <v>9</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R21" s="4">
         <v>66.666666599999999</v>
@@ -3202,48 +3211,48 @@
         <v>2</v>
       </c>
       <c r="T21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V21" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="W21" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z21" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="W21" t="s">
-        <v>13</v>
-      </c>
-      <c r="X21" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y21" s="3" t="s">
+      <c r="AA21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD21" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="Z21" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="AE21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C22">
         <v>28.5714285</v>
@@ -3252,10 +3261,10 @@
         <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
         <v>6</v>
@@ -3264,31 +3273,31 @@
         <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
         <v>9</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="R22" s="4">
         <v>33.3333333</v>
@@ -3297,48 +3306,48 @@
         <v>1</v>
       </c>
       <c r="T22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="W22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y22" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Z22" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AA22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC22" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AD22" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AE22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C23">
         <v>28.5714285</v>
@@ -3347,10 +3356,10 @@
         <v>2</v>
       </c>
       <c r="E23" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
         <v>6</v>
@@ -3359,31 +3368,31 @@
         <v>27</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
         <v>9</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M23" t="s">
+        <v>24</v>
+      </c>
+      <c r="N23" t="s">
+        <v>18</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="P23" t="s">
         <v>16</v>
       </c>
-      <c r="M23" t="s">
-        <v>25</v>
-      </c>
-      <c r="N23" t="s">
-        <v>19</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="P23" t="s">
-        <v>17</v>
-      </c>
       <c r="Q23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R23" s="4">
         <v>66.666666599999999</v>
@@ -3392,48 +3401,48 @@
         <v>2</v>
       </c>
       <c r="T23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="X23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z23" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AA23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD23" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AE23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C24">
         <v>14.285714199999999</v>
@@ -3442,10 +3451,10 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G24" t="s">
         <v>6</v>
@@ -3454,31 +3463,31 @@
         <v>25</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
         <v>9</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="R24" s="4">
         <v>100</v>
@@ -3487,48 +3496,48 @@
         <v>3</v>
       </c>
       <c r="T24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="W24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="X24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z24" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AA24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD24" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AE24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C25">
         <v>28.5714285</v>
@@ -3537,10 +3546,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -3549,31 +3558,31 @@
         <v>23</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
         <v>9</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q25" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="R25" s="4">
         <v>100</v>
@@ -3582,48 +3591,48 @@
         <v>3</v>
       </c>
       <c r="T25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="W25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="X25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z25" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AA25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD25" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AE25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C26">
         <v>14.285714199999999</v>
@@ -3632,10 +3641,10 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F26" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G26" t="s">
         <v>5</v>
@@ -3644,31 +3653,31 @@
         <v>24</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
         <v>9</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R26" s="4">
         <v>33.3333333</v>
@@ -3677,48 +3686,48 @@
         <v>1</v>
       </c>
       <c r="T26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V26" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="W26" t="s">
+        <v>13</v>
+      </c>
+      <c r="X26" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z26" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD26" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="W26" t="s">
+      <c r="AE26" t="s">
         <v>14</v>
-      </c>
-      <c r="X26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z26" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD26" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C27">
         <v>28.5714285</v>
@@ -3727,10 +3736,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G27" t="s">
         <v>6</v>
@@ -3739,31 +3748,31 @@
         <v>24</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
         <v>9</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q27" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="R27" s="4">
         <v>66.666666599999999</v>
@@ -3772,48 +3781,48 @@
         <v>2</v>
       </c>
       <c r="T27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="W27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="Z27" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AA27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD27" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AE27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C28">
         <v>28.5714285</v>
@@ -3822,10 +3831,10 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G28" t="s">
         <v>5</v>
@@ -3834,31 +3843,31 @@
         <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
         <v>9</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="R28" s="4">
         <v>100</v>
@@ -3867,48 +3876,48 @@
         <v>3</v>
       </c>
       <c r="T28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="W28" t="s">
+        <v>12</v>
+      </c>
+      <c r="X28" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z28" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA28" t="s">
         <v>13</v>
       </c>
-      <c r="X28" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z28" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA28" t="s">
+      <c r="AB28" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD28" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE28" t="s">
         <v>14</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD28" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C29">
         <v>28.5714285</v>
@@ -3917,10 +3926,10 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G29" t="s">
         <v>6</v>
@@ -3929,31 +3938,31 @@
         <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s">
         <v>9</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R29" s="4">
         <v>100</v>
@@ -3962,48 +3971,48 @@
         <v>3</v>
       </c>
       <c r="T29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="V29" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="W29" t="s">
+        <v>15</v>
+      </c>
+      <c r="X29" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z29" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD29" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="W29" t="s">
-        <v>16</v>
-      </c>
-      <c r="X29" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>74</v>
-      </c>
-      <c r="Z29" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AA29" t="s">
+      <c r="AE29" t="s">
         <v>14</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD29" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>258</v>
       </c>
       <c r="C30">
         <v>28.5714285</v>
@@ -4012,43 +4021,43 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
+        <v>236</v>
+      </c>
+      <c r="F30" t="s">
+        <v>237</v>
+      </c>
+      <c r="G30" t="s">
         <v>238</v>
-      </c>
-      <c r="F30" t="s">
-        <v>239</v>
-      </c>
-      <c r="G30" t="s">
-        <v>240</v>
       </c>
       <c r="H30">
         <v>26</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J30" t="s">
         <v>9</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L30" t="s">
+        <v>15</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" t="s">
         <v>16</v>
       </c>
-      <c r="M30" t="s">
-        <v>25</v>
-      </c>
-      <c r="N30" t="s">
-        <v>19</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="P30" t="s">
-        <v>17</v>
-      </c>
       <c r="Q30" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="R30" s="4">
         <v>66.666666599999999</v>
@@ -4057,48 +4066,48 @@
         <v>2</v>
       </c>
       <c r="T30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="W30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="X30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z30" s="4" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="AA30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AC30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AD30" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AE30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C31">
         <v>28.5714285</v>
@@ -4107,10 +4116,10 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F31" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G31" t="s">
         <v>5</v>
@@ -4119,31 +4128,31 @@
         <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J31" t="s">
         <v>9</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R31" s="4">
         <v>66.666666599999999</v>
@@ -4152,40 +4161,40 @@
         <v>2</v>
       </c>
       <c r="T31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="U31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="W31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Y31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Z31" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AA31" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD31" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE31" t="s">
         <v>16</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC31" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD31" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
